--- a/myapp/files/9_MethodComparePercent/Scenario 337.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 337.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6024</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.919506543699457</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.766283524904215</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>15129</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.30929855571532</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.53256704980843</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>17314</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.64281811049343</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -669,10 +669,10 @@
         <v>3.125</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.91570881226054</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>564</v>
+        <v>20233</v>
       </c>
       <c r="F5" t="n">
-        <v>0.671101010221202</v>
+        <v>3.08837581319242</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>1.88679245283019</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2209</v>
+        <v>12457</v>
       </c>
       <c r="F6" t="n">
-        <v>2.62847895669971</v>
+        <v>1.90144306355646</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" t="n">
-        <v>1.88679245283019</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>9474</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.44611636703331</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.14942528735632</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>18056</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.75607738264233</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.5625</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.29885057471264</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>5624</v>
+        <v>34874</v>
       </c>
       <c r="F9" t="n">
-        <v>6.69197177568092</v>
+        <v>5.32318579099848</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>3.125</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J9" t="n">
-        <v>7.54716981132075</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>6958</v>
+        <v>48873</v>
       </c>
       <c r="F10" t="n">
-        <v>8.27929225021121</v>
+        <v>7.4600005495059</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -897,10 +897,10 @@
         <v>1.5625</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>9.43396226415094</v>
+        <v>8.81226053639847</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>3996</v>
+        <v>31446</v>
       </c>
       <c r="F11" t="n">
-        <v>4.7548220511417</v>
+        <v>4.79993405929169</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,16 +935,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.13026819923372</v>
+      </c>
+      <c r="K11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
-        <v>7.54716981132075</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5</v>
-      </c>
       <c r="L11" t="n">
-        <v>7.8125</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="12">
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9558</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.45893817142752</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.766283524904215</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>4899</v>
+        <v>32104</v>
       </c>
       <c r="F13" t="n">
-        <v>5.82929760474054</v>
+        <v>4.90037152704638</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1011,10 +1011,10 @@
         <v>1.5625</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>5.66037735849057</v>
+        <v>3.83141762452107</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>17087</v>
+        <v>64703</v>
       </c>
       <c r="F14" t="n">
-        <v>20.3317428398044</v>
+        <v>9.87630011570152</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>9.375</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J14" t="n">
-        <v>16.9811320754717</v>
+        <v>9.57854406130268</v>
       </c>
       <c r="K14" t="n">
         <v>9</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>16550</v>
+        <v>78652</v>
       </c>
       <c r="F15" t="n">
-        <v>19.6927690056044</v>
+        <v>12.0054828477838</v>
       </c>
       <c r="G15" t="n">
         <v>14</v>
@@ -1087,10 +1087,10 @@
         <v>21.875</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J15" t="n">
-        <v>16.9811320754717</v>
+        <v>11.1111111111111</v>
       </c>
       <c r="K15" t="n">
         <v>10</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>5730</v>
+        <v>51358</v>
       </c>
       <c r="F16" t="n">
-        <v>6.81810068894944</v>
+        <v>7.83931226283478</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1125,10 +1125,10 @@
         <v>1.5625</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>5.66037735849057</v>
+        <v>7.66283524904215</v>
       </c>
       <c r="K16" t="n">
         <v>5</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5873</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.896457823895569</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.766283524904215</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>17102</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.61045831845088</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1201,10 +1201,10 @@
         <v>1.5625</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.68199233716475</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>108</v>
+        <v>34034</v>
       </c>
       <c r="F19" t="n">
-        <v>0.128508704084911</v>
+        <v>5.19496774705633</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,16 +1239,16 @@
         <v>18.75</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>1.88679245283019</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>3186</v>
+        <v>49673</v>
       </c>
       <c r="F20" t="n">
-        <v>3.79100677050487</v>
+        <v>7.58211297230795</v>
       </c>
       <c r="G20" t="n">
         <v>15</v>
@@ -1277,16 +1277,16 @@
         <v>23.4375</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88679245283019</v>
+        <v>6.51340996168582</v>
       </c>
       <c r="K20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>9.375</v>
+        <v>7.8125</v>
       </c>
     </row>
     <row r="21">
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>3280</v>
+        <v>33463</v>
       </c>
       <c r="F21" t="n">
-        <v>3.90285693887507</v>
+        <v>5.10781000528136</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1315,10 +1315,10 @@
         <v>1.5625</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J21" t="n">
-        <v>5.66037735849057</v>
+        <v>6.13026819923372</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2550</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.389233347681543</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.383141762452107</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>1428</v>
+        <v>6633</v>
       </c>
       <c r="F23" t="n">
-        <v>1.69917064290049</v>
+        <v>1.01246462555752</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.77358490566038</v>
+        <v>1.53256704980843</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>8061</v>
+        <v>29058</v>
       </c>
       <c r="F24" t="n">
-        <v>9.59174688544877</v>
+        <v>4.43542847722756</v>
       </c>
       <c r="G24" t="n">
         <v>5</v>
@@ -1429,10 +1429,10 @@
         <v>7.8125</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J24" t="n">
-        <v>5.66037735849057</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K24" t="n">
         <v>5</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>2309</v>
+        <v>17765</v>
       </c>
       <c r="F25" t="n">
-        <v>2.74746849751907</v>
+        <v>2.71165898884808</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,16 +1467,16 @@
         <v>1.5625</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>5.66037735849057</v>
+        <v>3.44827586206897</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>4.6875</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="26">
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>2052</v>
+        <v>8728</v>
       </c>
       <c r="F26" t="n">
-        <v>2.44166537761331</v>
+        <v>1.33224653277039</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.5625</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>1.88679245283019</v>
+        <v>1.53256704980843</v>
       </c>
       <c r="K26" t="n">
         <v>1</v>
